--- a/Data/EC/NIT-8904000994.xlsx
+++ b/Data/EC/NIT-8904000994.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{588049B0-B968-4A6F-910C-3F63C5554A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A11963D0-5560-4F10-8504-B41CD443A534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{91CDD862-CF6D-4225-B762-8BDC4882E264}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{99ADF9C9-9155-4A1C-A128-891083B3EB8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="107">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,13 +65,88 @@
     <t>CC</t>
   </si>
   <si>
-    <t>45471813</t>
-  </si>
-  <si>
-    <t>CLAUDIA MARGARITA PUA MEZA</t>
-  </si>
-  <si>
-    <t>2507</t>
+    <t>1047499078</t>
+  </si>
+  <si>
+    <t>JUAN MIGUEL ATENCIA CANOLES</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>20200231</t>
+  </si>
+  <si>
+    <t>MARIA PAULA TORDECILLA MARRUGO</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>952834505091987</t>
+  </si>
+  <si>
+    <t>JUNIOR ALEXANDER MONTILLA</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>1235039044</t>
+  </si>
+  <si>
+    <t>ANGEL ENRIQUE JULIO PAJARO</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
   </si>
   <si>
     <t>45762998</t>
@@ -80,10 +155,7 @@
     <t>LIDA MARIMON HERAZO</t>
   </si>
   <si>
-    <t>73113098</t>
-  </si>
-  <si>
-    <t>CESAR ANTONIO ORTIZ BOLAÑO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>73168589</t>
@@ -92,45 +164,12 @@
     <t>PAULO CESAR BEDOYA VILLADIEGO</t>
   </si>
   <si>
-    <t>71182803</t>
-  </si>
-  <si>
-    <t>EVERALDO BLANQUICET BARRIOS</t>
-  </si>
-  <si>
-    <t>73556546</t>
-  </si>
-  <si>
-    <t>LUIS MIGUEL MARTINEZ PEÑARANDA</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>9285624</t>
-  </si>
-  <si>
-    <t>ORLANDO GARCIA DEL RIO</t>
-  </si>
-  <si>
-    <t>73122726</t>
-  </si>
-  <si>
-    <t>VICTOR DEL TORO OROZCO</t>
-  </si>
-  <si>
     <t>9148791</t>
   </si>
   <si>
     <t>CARLOS CESAR CORRALES GOEZ</t>
   </si>
   <si>
-    <t>45548346</t>
-  </si>
-  <si>
-    <t>KELLY MENDOZA PALENCIA</t>
-  </si>
-  <si>
     <t>73158106</t>
   </si>
   <si>
@@ -149,24 +188,6 @@
     <t>HENRY JOSE LOPEZ LEDESMA</t>
   </si>
   <si>
-    <t>9098146</t>
-  </si>
-  <si>
-    <t>JULIO CESAR ARZUZA VILLAMIL</t>
-  </si>
-  <si>
-    <t>1044911518</t>
-  </si>
-  <si>
-    <t>KEVIN NERSULIS CASTRO DIAZ</t>
-  </si>
-  <si>
-    <t>45475929</t>
-  </si>
-  <si>
-    <t>BLEIDES PEREZ PEDROZA</t>
-  </si>
-  <si>
     <t>1001899930</t>
   </si>
   <si>
@@ -209,36 +230,12 @@
     <t>ELKIN MEDRANO MERCADO</t>
   </si>
   <si>
-    <t>30572891</t>
-  </si>
-  <si>
-    <t>CRISTOBALINA ORTEGA CARDENAS</t>
-  </si>
-  <si>
-    <t>9288753</t>
-  </si>
-  <si>
-    <t>ANGEL DE JESUS ROMERO GONZALEZ</t>
-  </si>
-  <si>
-    <t>45366082</t>
-  </si>
-  <si>
-    <t>LILIANA TORRES TEHERAN</t>
-  </si>
-  <si>
     <t>79590877</t>
   </si>
   <si>
     <t>JOSE EFRAIN LOPEZ PEREZ</t>
   </si>
   <si>
-    <t>45498432</t>
-  </si>
-  <si>
-    <t>ANA ERLINDA LLERENA MARTINEZ</t>
-  </si>
-  <si>
     <t>1002192243</t>
   </si>
   <si>
@@ -317,94 +314,10 @@
     <t>JESUS ALBERTO RANDIAL MONTALVO</t>
   </si>
   <si>
-    <t>1047499078</t>
-  </si>
-  <si>
-    <t>JUAN MIGUEL ATENCIA CANOLES</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>952834505091987</t>
-  </si>
-  <si>
-    <t>JUNIOR ALEXANDER MONTILLA</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>20200231</t>
-  </si>
-  <si>
-    <t>MARIA PAULA TORDECILLA MARRUGO</t>
-  </si>
-  <si>
-    <t>1235039044</t>
-  </si>
-  <si>
-    <t>ANGEL ENRIQUE JULIO PAJARO</t>
-  </si>
-  <si>
-    <t>1007725002</t>
-  </si>
-  <si>
-    <t>CAMILA MERCADO LUGO</t>
+    <t>1001902270</t>
+  </si>
+  <si>
+    <t>ANGY PAOLA JARABA SORACA</t>
   </si>
   <si>
     <t>1005472268</t>
@@ -509,7 +422,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -522,9 +437,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -724,23 +637,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -768,10 +681,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -824,7 +737,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E9A81DF-41EA-19AC-D29E-C3416042C612}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{805EFE4C-1BF8-3F50-45C9-A8CA58946147}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1175,8 +1088,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559079EC-F8B3-452D-97FE-DF9CE8D9F45E}">
-  <dimension ref="B2:J86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120D3CED-1FAE-43FC-8BF9-12CFC38F43E3}">
+  <dimension ref="B2:J71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1200,7 +1113,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1245,7 +1158,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1277,12 +1190,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>5756598</v>
+        <v>4209821</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1293,17 +1206,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C13" s="5">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="F13" s="5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1330,13 +1243,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1353,10 +1266,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>126527</v>
+        <v>22800</v>
       </c>
       <c r="G16" s="18">
-        <v>3163170</v>
+        <v>900000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1376,10 +1289,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>148488</v>
+        <v>39008</v>
       </c>
       <c r="G17" s="18">
-        <v>3712186</v>
+        <v>1272000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1387,22 +1300,22 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>88008</v>
+        <v>14400</v>
       </c>
       <c r="G18" s="18">
-        <v>2200208</v>
+        <v>900000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1410,22 +1323,22 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
-        <v>65441</v>
+        <v>36000</v>
       </c>
       <c r="G19" s="18">
-        <v>1636013</v>
+        <v>900000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1433,22 +1346,22 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F20" s="18">
-        <v>179858</v>
+        <v>36000</v>
       </c>
       <c r="G20" s="18">
-        <v>4496459</v>
+        <v>900000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1456,22 +1369,22 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F21" s="18">
-        <v>98084</v>
+        <v>36000</v>
       </c>
       <c r="G21" s="18">
-        <v>2452108</v>
+        <v>900000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1479,22 +1392,22 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F22" s="18">
-        <v>98084</v>
+        <v>36000</v>
       </c>
       <c r="G22" s="18">
-        <v>2452108</v>
+        <v>900000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1502,22 +1415,22 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
-        <v>88613</v>
+        <v>36000</v>
       </c>
       <c r="G23" s="18">
-        <v>2215325</v>
+        <v>900000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1525,22 +1438,22 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F24" s="18">
-        <v>179858</v>
+        <v>36000</v>
       </c>
       <c r="G24" s="18">
-        <v>4496459</v>
+        <v>900000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1548,22 +1461,22 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
-        <v>71503</v>
+        <v>36000</v>
       </c>
       <c r="G25" s="18">
-        <v>1787577</v>
+        <v>900000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1571,22 +1484,22 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F26" s="18">
-        <v>65441</v>
+        <v>36000</v>
       </c>
       <c r="G26" s="18">
-        <v>1636013</v>
+        <v>900000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1597,19 +1510,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F27" s="18">
-        <v>94250</v>
+        <v>30800</v>
       </c>
       <c r="G27" s="18">
-        <v>828116</v>
+        <v>1100000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1617,22 +1530,22 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F28" s="18">
-        <v>58446</v>
+        <v>36000</v>
       </c>
       <c r="G28" s="18">
-        <v>1461155</v>
+        <v>900000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1640,22 +1553,22 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F29" s="18">
-        <v>74908</v>
+        <v>36000</v>
       </c>
       <c r="G29" s="18">
-        <v>1872686</v>
+        <v>900000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1663,22 +1576,22 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F30" s="18">
-        <v>62863</v>
+        <v>36000</v>
       </c>
       <c r="G30" s="18">
-        <v>1571578</v>
+        <v>900000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1686,22 +1599,22 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F31" s="18">
-        <v>94232</v>
+        <v>36000</v>
       </c>
       <c r="G31" s="18">
-        <v>2355796</v>
+        <v>900000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1709,22 +1622,22 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F32" s="18">
-        <v>78637</v>
+        <v>36000</v>
       </c>
       <c r="G32" s="18">
-        <v>1965942</v>
+        <v>900000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1732,22 +1645,22 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F33" s="18">
-        <v>69424</v>
+        <v>36000</v>
       </c>
       <c r="G33" s="18">
-        <v>828116</v>
+        <v>900000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1755,22 +1668,22 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F34" s="18">
-        <v>84156</v>
+        <v>36000</v>
       </c>
       <c r="G34" s="18">
-        <v>2103906</v>
+        <v>900000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1778,22 +1691,22 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F35" s="18">
-        <v>92954</v>
+        <v>36000</v>
       </c>
       <c r="G35" s="18">
-        <v>2323849</v>
+        <v>900000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1801,22 +1714,22 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F36" s="18">
-        <v>328000</v>
+        <v>1200</v>
       </c>
       <c r="G36" s="18">
-        <v>8200000</v>
+        <v>900000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1827,19 +1740,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F37" s="18">
-        <v>217428</v>
+        <v>148488</v>
       </c>
       <c r="G37" s="18">
-        <v>5435701</v>
+        <v>3712186</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1850,19 +1763,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F38" s="18">
-        <v>119172</v>
+        <v>65441</v>
       </c>
       <c r="G38" s="18">
-        <v>2979295</v>
+        <v>1636013</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1873,19 +1786,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F39" s="18">
-        <v>60002</v>
+        <v>71503</v>
       </c>
       <c r="G39" s="18">
-        <v>1500074</v>
+        <v>1787577</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1896,19 +1809,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F40" s="18">
-        <v>65377</v>
+        <v>94250</v>
       </c>
       <c r="G40" s="18">
-        <v>1634442</v>
+        <v>2356265</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1919,19 +1832,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F41" s="18">
-        <v>139871</v>
+        <v>58446</v>
       </c>
       <c r="G41" s="18">
-        <v>3496761</v>
+        <v>1461155</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1942,19 +1855,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F42" s="18">
-        <v>65438</v>
+        <v>74908</v>
       </c>
       <c r="G42" s="18">
-        <v>1635952</v>
+        <v>1872686</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1965,19 +1878,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F43" s="18">
-        <v>132815</v>
+        <v>69424</v>
       </c>
       <c r="G43" s="18">
-        <v>3320374</v>
+        <v>1735579</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1988,19 +1901,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>107348</v>
+        <v>84156</v>
       </c>
       <c r="G44" s="18">
-        <v>2683714</v>
+        <v>2103906</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2011,19 +1924,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F45" s="18">
-        <v>76680</v>
+        <v>92954</v>
       </c>
       <c r="G45" s="18">
-        <v>1917000</v>
+        <v>2323849</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2034,19 +1947,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F46" s="18">
-        <v>180000</v>
+        <v>328000</v>
       </c>
       <c r="G46" s="18">
-        <v>4500000</v>
+        <v>8200000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2057,19 +1970,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F47" s="18">
-        <v>153079</v>
+        <v>217428</v>
       </c>
       <c r="G47" s="18">
-        <v>3826974</v>
+        <v>5435701</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2080,19 +1993,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F48" s="18">
-        <v>69478</v>
+        <v>119172</v>
       </c>
       <c r="G48" s="18">
-        <v>1736929</v>
+        <v>2979295</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2103,19 +2016,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F49" s="18">
-        <v>65441</v>
+        <v>60002</v>
       </c>
       <c r="G49" s="18">
-        <v>1636013</v>
+        <v>1500074</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2126,19 +2039,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F50" s="18">
-        <v>58446</v>
+        <v>132815</v>
       </c>
       <c r="G50" s="18">
-        <v>1461155</v>
+        <v>3320374</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2149,19 +2062,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F51" s="18">
-        <v>668194</v>
+        <v>76680</v>
       </c>
       <c r="G51" s="18">
-        <v>23864052</v>
+        <v>1917000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2172,19 +2085,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F52" s="18">
-        <v>69424</v>
+        <v>180000</v>
       </c>
       <c r="G52" s="18">
-        <v>1735579</v>
+        <v>4500000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2195,19 +2108,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F53" s="18">
-        <v>56940</v>
+        <v>153079</v>
       </c>
       <c r="G53" s="18">
-        <v>1423500</v>
+        <v>3826974</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2218,19 +2131,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F54" s="18">
-        <v>159094</v>
+        <v>69478</v>
       </c>
       <c r="G54" s="18">
-        <v>3977343</v>
+        <v>1736929</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2241,19 +2154,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F55" s="18">
-        <v>58446</v>
+        <v>65441</v>
       </c>
       <c r="G55" s="18">
-        <v>1461155</v>
+        <v>1636013</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2264,19 +2177,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F56" s="18">
-        <v>57026</v>
+        <v>58446</v>
       </c>
       <c r="G56" s="18">
-        <v>1425648</v>
+        <v>1461155</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2287,19 +2200,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F57" s="18">
-        <v>121972</v>
+        <v>668194</v>
       </c>
       <c r="G57" s="18">
-        <v>3049296</v>
+        <v>23864052</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2310,19 +2223,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="F58" s="18">
-        <v>22800</v>
+        <v>69424</v>
       </c>
       <c r="G58" s="18">
-        <v>900000</v>
+        <v>1735579</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2330,22 +2243,22 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="F59" s="18">
-        <v>1200</v>
+        <v>56940</v>
       </c>
       <c r="G59" s="18">
-        <v>900000</v>
+        <v>1423500</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2353,22 +2266,22 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="F60" s="18">
-        <v>36000</v>
+        <v>159094</v>
       </c>
       <c r="G60" s="18">
-        <v>900000</v>
+        <v>3977343</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2376,22 +2289,22 @@
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="F61" s="18">
-        <v>36000</v>
+        <v>58446</v>
       </c>
       <c r="G61" s="18">
-        <v>900000</v>
+        <v>1461155</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2399,22 +2312,22 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="F62" s="18">
-        <v>36000</v>
+        <v>57026</v>
       </c>
       <c r="G62" s="18">
-        <v>900000</v>
+        <v>1425648</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2422,22 +2335,22 @@
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="F63" s="18">
-        <v>36000</v>
+        <v>121972</v>
       </c>
       <c r="G63" s="18">
-        <v>900000</v>
+        <v>3049296</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2445,423 +2358,78 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="F64" s="18">
-        <v>36000</v>
+        <v>55362</v>
       </c>
       <c r="G64" s="18">
-        <v>900000</v>
+        <v>1597000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E65" s="16" t="s">
+      <c r="B65" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F65" s="24">
+        <v>59044</v>
+      </c>
+      <c r="G65" s="24">
+        <v>1476090</v>
+      </c>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="26"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B70" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="F65" s="18">
-        <v>36000</v>
-      </c>
-      <c r="G65" s="18">
-        <v>900000</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B66" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E66" s="16" t="s">
+      <c r="C70" s="32"/>
+      <c r="H70" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B71" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71" s="32"/>
+      <c r="H71" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F66" s="18">
-        <v>36000</v>
-      </c>
-      <c r="G66" s="18">
-        <v>900000</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B67" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F67" s="18">
-        <v>36000</v>
-      </c>
-      <c r="G67" s="18">
-        <v>900000</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="F68" s="18">
-        <v>36000</v>
-      </c>
-      <c r="G68" s="18">
-        <v>900000</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B69" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F69" s="18">
-        <v>36000</v>
-      </c>
-      <c r="G69" s="18">
-        <v>900000</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F70" s="18">
-        <v>36000</v>
-      </c>
-      <c r="G70" s="18">
-        <v>900000</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F71" s="18">
-        <v>36000</v>
-      </c>
-      <c r="G71" s="18">
-        <v>900000</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="F72" s="18">
-        <v>36000</v>
-      </c>
-      <c r="G72" s="18">
-        <v>900000</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B73" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F73" s="18">
-        <v>36000</v>
-      </c>
-      <c r="G73" s="18">
-        <v>900000</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B74" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="F74" s="18">
-        <v>36000</v>
-      </c>
-      <c r="G74" s="18">
-        <v>900000</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B75" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="F75" s="18">
-        <v>36000</v>
-      </c>
-      <c r="G75" s="18">
-        <v>900000</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B76" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F76" s="18">
-        <v>14400</v>
-      </c>
-      <c r="G76" s="18">
-        <v>900000</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B77" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F77" s="18">
-        <v>39008</v>
-      </c>
-      <c r="G77" s="18">
-        <v>1272000</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="F78" s="18">
-        <v>30800</v>
-      </c>
-      <c r="G78" s="18">
-        <v>1100000</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="18">
-        <v>63900</v>
-      </c>
-      <c r="G79" s="18">
-        <v>1597500</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B80" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="D80" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="E80" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="24">
-        <v>59044</v>
-      </c>
-      <c r="G80" s="24">
-        <v>1476090</v>
-      </c>
-      <c r="H80" s="25"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="26"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B85" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C85" s="32"/>
-      <c r="H85" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B86" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="C86" s="32"/>
-      <c r="H86" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="H70:J70"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
